--- a/data/pca/factorExposure/factorExposure_2011-12-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0107536558468211</v>
+        <v>0.01132013791163975</v>
       </c>
       <c r="C2">
-        <v>-0.03010257558866201</v>
+        <v>0.02444651313715634</v>
       </c>
       <c r="D2">
-        <v>-0.02114808541943893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02414427918447867</v>
+      </c>
+      <c r="E2">
+        <v>-0.007050014805958572</v>
+      </c>
+      <c r="F2">
+        <v>-0.02625612428359479</v>
+      </c>
+      <c r="G2">
+        <v>0.000477406133063693</v>
+      </c>
+      <c r="H2">
+        <v>0.02890488959344459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07520174692977079</v>
+        <v>0.08798542716840585</v>
       </c>
       <c r="C4">
-        <v>-0.05004215617065499</v>
+        <v>0.03332082703114437</v>
       </c>
       <c r="D4">
-        <v>-0.08084606726264001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06996991962617637</v>
+      </c>
+      <c r="E4">
+        <v>-0.006058650107872064</v>
+      </c>
+      <c r="F4">
+        <v>-0.04339416525225214</v>
+      </c>
+      <c r="G4">
+        <v>-0.01159839694465945</v>
+      </c>
+      <c r="H4">
+        <v>-0.03994182885658745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1103255963229953</v>
+        <v>0.1231846399264049</v>
       </c>
       <c r="C6">
-        <v>-0.04775882770166831</v>
+        <v>0.03336300102664391</v>
       </c>
       <c r="D6">
-        <v>-0.008489609966836073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01137096952051743</v>
+      </c>
+      <c r="E6">
+        <v>0.02538103880165766</v>
+      </c>
+      <c r="F6">
+        <v>-0.05514260626947514</v>
+      </c>
+      <c r="G6">
+        <v>-0.03186494302539019</v>
+      </c>
+      <c r="H6">
+        <v>0.1089025082046414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05545022665548765</v>
+        <v>0.06436063712309351</v>
       </c>
       <c r="C7">
-        <v>-0.02645536993930816</v>
+        <v>0.01165736652449039</v>
       </c>
       <c r="D7">
-        <v>-0.03520802597461452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05126724396726222</v>
+      </c>
+      <c r="E7">
+        <v>-0.03025412155168686</v>
+      </c>
+      <c r="F7">
+        <v>-0.04483146078836368</v>
+      </c>
+      <c r="G7">
+        <v>0.03148364029980304</v>
+      </c>
+      <c r="H7">
+        <v>-0.01484885952796768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04112453972751207</v>
+        <v>0.04365915100468042</v>
       </c>
       <c r="C8">
-        <v>-0.0138204525272229</v>
+        <v>0.00953654208733656</v>
       </c>
       <c r="D8">
-        <v>-0.05928569019107424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02421782256064372</v>
+      </c>
+      <c r="E8">
+        <v>-0.01190401783586089</v>
+      </c>
+      <c r="F8">
+        <v>-0.06732440296122613</v>
+      </c>
+      <c r="G8">
+        <v>-0.05237655203985932</v>
+      </c>
+      <c r="H8">
+        <v>0.01221858652626008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07156165608930322</v>
+        <v>0.08099183920917291</v>
       </c>
       <c r="C9">
-        <v>-0.03840485576059828</v>
+        <v>0.02248132502796539</v>
       </c>
       <c r="D9">
-        <v>-0.07084874793943055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06284457717527844</v>
+      </c>
+      <c r="E9">
+        <v>-0.0225775766784676</v>
+      </c>
+      <c r="F9">
+        <v>-0.03610841414379328</v>
+      </c>
+      <c r="G9">
+        <v>-0.02145117579488792</v>
+      </c>
+      <c r="H9">
+        <v>-0.04638966474219899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03032303574380016</v>
+        <v>0.04494673155448737</v>
       </c>
       <c r="C10">
-        <v>-0.03245556551447749</v>
+        <v>0.06365073463949114</v>
       </c>
       <c r="D10">
-        <v>0.1778823652674328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1748420438067326</v>
+      </c>
+      <c r="E10">
+        <v>-0.04106538843873253</v>
+      </c>
+      <c r="F10">
+        <v>-0.05497928184842854</v>
+      </c>
+      <c r="G10">
+        <v>0.03596249853529078</v>
+      </c>
+      <c r="H10">
+        <v>0.05026240066952609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07290726621836383</v>
+        <v>0.07684960595178408</v>
       </c>
       <c r="C11">
-        <v>-0.04088688280470321</v>
+        <v>0.01851941207186979</v>
       </c>
       <c r="D11">
-        <v>-0.05556863035921759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0665937921472214</v>
+      </c>
+      <c r="E11">
+        <v>0.008020469725301457</v>
+      </c>
+      <c r="F11">
+        <v>-0.03464322504594101</v>
+      </c>
+      <c r="G11">
+        <v>-0.03184725876019205</v>
+      </c>
+      <c r="H11">
+        <v>-0.07193704701875284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06072199225367973</v>
+        <v>0.06968430536981389</v>
       </c>
       <c r="C12">
-        <v>-0.05001508336442687</v>
+        <v>0.03166773660155714</v>
       </c>
       <c r="D12">
-        <v>-0.04484149678994993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05056096832199531</v>
+      </c>
+      <c r="E12">
+        <v>-0.009670307650264871</v>
+      </c>
+      <c r="F12">
+        <v>-0.02454770137355283</v>
+      </c>
+      <c r="G12">
+        <v>-0.01644683146262719</v>
+      </c>
+      <c r="H12">
+        <v>-0.03166839716924516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06819159621468651</v>
+        <v>0.06748881286048367</v>
       </c>
       <c r="C13">
-        <v>-0.03378631321050779</v>
+        <v>0.01633746980690441</v>
       </c>
       <c r="D13">
-        <v>-0.04128139685581295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03907272327077239</v>
+      </c>
+      <c r="E13">
+        <v>-0.009408278393110195</v>
+      </c>
+      <c r="F13">
+        <v>-0.02485018640793621</v>
+      </c>
+      <c r="G13">
+        <v>-0.0040336878326955</v>
+      </c>
+      <c r="H13">
+        <v>-0.05279645306192981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03407657707424488</v>
+        <v>0.04049620052966248</v>
       </c>
       <c r="C14">
-        <v>-0.03199562485408983</v>
+        <v>0.02604889782561353</v>
       </c>
       <c r="D14">
-        <v>0.008158923479227826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01390184336967146</v>
+      </c>
+      <c r="E14">
+        <v>-0.02536532449812598</v>
+      </c>
+      <c r="F14">
+        <v>-0.02382014301258273</v>
+      </c>
+      <c r="G14">
+        <v>-0.0248888019949606</v>
+      </c>
+      <c r="H14">
+        <v>-0.05280431598395999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04250730040042368</v>
+        <v>0.04128920232997026</v>
       </c>
       <c r="C15">
-        <v>-0.008481953069098182</v>
+        <v>0.001592682004432797</v>
       </c>
       <c r="D15">
-        <v>-0.0188248579317473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006693628034967215</v>
+      </c>
+      <c r="E15">
+        <v>-0.03539939317535763</v>
+      </c>
+      <c r="F15">
+        <v>-0.006111644081175419</v>
+      </c>
+      <c r="G15">
+        <v>-0.03331433728277269</v>
+      </c>
+      <c r="H15">
+        <v>-0.02499204637391296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06106607372580782</v>
+        <v>0.07157113928141196</v>
       </c>
       <c r="C16">
-        <v>-0.03839680840026558</v>
+        <v>0.02163196931489977</v>
       </c>
       <c r="D16">
-        <v>-0.0505370614110185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06292847016382165</v>
+      </c>
+      <c r="E16">
+        <v>-0.003262307937372709</v>
+      </c>
+      <c r="F16">
+        <v>-0.03018881926112577</v>
+      </c>
+      <c r="G16">
+        <v>-0.01533164260251016</v>
+      </c>
+      <c r="H16">
+        <v>-0.04955013575333527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06417489558068007</v>
+        <v>0.06269247592599533</v>
       </c>
       <c r="C20">
-        <v>-0.02386244124644845</v>
+        <v>0.005671139029583072</v>
       </c>
       <c r="D20">
-        <v>-0.04828064326207197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04112672671370888</v>
+      </c>
+      <c r="E20">
+        <v>-0.00801765606111669</v>
+      </c>
+      <c r="F20">
+        <v>-0.03119505378593436</v>
+      </c>
+      <c r="G20">
+        <v>-0.02543336894906014</v>
+      </c>
+      <c r="H20">
+        <v>-0.04536919358578324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02875300847569041</v>
+        <v>0.0277395726302125</v>
       </c>
       <c r="C21">
-        <v>0.00129907674533566</v>
+        <v>-0.009835143998940714</v>
       </c>
       <c r="D21">
-        <v>-0.01933725155790372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02133327105001238</v>
+      </c>
+      <c r="E21">
+        <v>-0.04048614445789214</v>
+      </c>
+      <c r="F21">
+        <v>0.003551375307170426</v>
+      </c>
+      <c r="G21">
+        <v>-0.009775697413047506</v>
+      </c>
+      <c r="H21">
+        <v>0.04864555696284511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07979941592139875</v>
+        <v>0.07109830765033513</v>
       </c>
       <c r="C22">
-        <v>-0.05993189788085564</v>
+        <v>0.03150476487194957</v>
       </c>
       <c r="D22">
-        <v>-0.1399244601420229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.102130790736682</v>
+      </c>
+      <c r="E22">
+        <v>-0.615839523291721</v>
+      </c>
+      <c r="F22">
+        <v>0.05648991607041751</v>
+      </c>
+      <c r="G22">
+        <v>0.1433752531197485</v>
+      </c>
+      <c r="H22">
+        <v>0.1454822472779843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08080091589056329</v>
+        <v>0.0720062533809102</v>
       </c>
       <c r="C23">
-        <v>-0.05861667431898236</v>
+        <v>0.03015893591819397</v>
       </c>
       <c r="D23">
-        <v>-0.141055547526036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1031321112217416</v>
+      </c>
+      <c r="E23">
+        <v>-0.6178817312282718</v>
+      </c>
+      <c r="F23">
+        <v>0.05568615273889346</v>
+      </c>
+      <c r="G23">
+        <v>0.1383635203763255</v>
+      </c>
+      <c r="H23">
+        <v>0.1406982248901419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07707196995640792</v>
+        <v>0.0815819708148456</v>
       </c>
       <c r="C24">
-        <v>-0.04985989979391456</v>
+        <v>0.02718921692804306</v>
       </c>
       <c r="D24">
-        <v>-0.05938881881126547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06371242792298233</v>
+      </c>
+      <c r="E24">
+        <v>-0.007820952093555076</v>
+      </c>
+      <c r="F24">
+        <v>-0.04118120965610339</v>
+      </c>
+      <c r="G24">
+        <v>-0.02721165798032865</v>
+      </c>
+      <c r="H24">
+        <v>-0.03533963041583731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0755263276825917</v>
+        <v>0.08029124705979157</v>
       </c>
       <c r="C25">
-        <v>-0.05194894361302237</v>
+        <v>0.03122392889216538</v>
       </c>
       <c r="D25">
-        <v>-0.060789717573417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05214832503979501</v>
+      </c>
+      <c r="E25">
+        <v>-0.01535732117744243</v>
+      </c>
+      <c r="F25">
+        <v>-0.0369119659747473</v>
+      </c>
+      <c r="G25">
+        <v>-0.03865278201540508</v>
+      </c>
+      <c r="H25">
+        <v>-0.04178171277811363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04645929567019332</v>
+        <v>0.04619136787596984</v>
       </c>
       <c r="C26">
-        <v>-0.00925266905188866</v>
+        <v>-0.001059941826067685</v>
       </c>
       <c r="D26">
-        <v>-0.01313167122963086</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01985115878566479</v>
+      </c>
+      <c r="E26">
+        <v>-0.03766407080987662</v>
+      </c>
+      <c r="F26">
+        <v>-0.04164366049559586</v>
+      </c>
+      <c r="G26">
+        <v>-0.008935802086655545</v>
+      </c>
+      <c r="H26">
+        <v>-0.04573937242483542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04780322593609124</v>
+        <v>0.06961826248531884</v>
       </c>
       <c r="C28">
-        <v>-0.07488711637146317</v>
+        <v>0.1191865881879826</v>
       </c>
       <c r="D28">
-        <v>0.3020716544045188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2944353116599914</v>
+      </c>
+      <c r="E28">
+        <v>-0.03409878491089624</v>
+      </c>
+      <c r="F28">
+        <v>-0.06262578317949417</v>
+      </c>
+      <c r="G28">
+        <v>-0.01993535521308661</v>
+      </c>
+      <c r="H28">
+        <v>0.04797267303122243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04601471995812213</v>
+        <v>0.04811892312520874</v>
       </c>
       <c r="C29">
-        <v>-0.02953692425445916</v>
+        <v>0.02124159625556998</v>
       </c>
       <c r="D29">
-        <v>-0.00276511698383892</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01241926177093935</v>
+      </c>
+      <c r="E29">
+        <v>-0.05501050985144914</v>
+      </c>
+      <c r="F29">
+        <v>-0.02311079159883864</v>
+      </c>
+      <c r="G29">
+        <v>-0.01687411648622962</v>
+      </c>
+      <c r="H29">
+        <v>-0.0685278864572821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1294064615168901</v>
+        <v>0.1263150967720113</v>
       </c>
       <c r="C30">
-        <v>-0.08469253843055577</v>
+        <v>0.05174005924074925</v>
       </c>
       <c r="D30">
-        <v>-0.1148397609138303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08327063071072409</v>
+      </c>
+      <c r="E30">
+        <v>-0.06018993844093828</v>
+      </c>
+      <c r="F30">
+        <v>-0.02211358235715213</v>
+      </c>
+      <c r="G30">
+        <v>-0.07544787767586301</v>
+      </c>
+      <c r="H30">
+        <v>0.02705249956015781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04817767025582648</v>
+        <v>0.04926677612649267</v>
       </c>
       <c r="C31">
-        <v>-0.02255932498160513</v>
+        <v>0.009205211457406623</v>
       </c>
       <c r="D31">
-        <v>-0.01977329739582342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03409128353759135</v>
+      </c>
+      <c r="E31">
+        <v>-0.02330649905462402</v>
+      </c>
+      <c r="F31">
+        <v>-0.007353489648521363</v>
+      </c>
+      <c r="G31">
+        <v>0.003574909819104563</v>
+      </c>
+      <c r="H31">
+        <v>-0.06931358863159483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03698260183540338</v>
+        <v>0.0401229032749062</v>
       </c>
       <c r="C32">
-        <v>-0.02433936541769118</v>
+        <v>0.02323448425016771</v>
       </c>
       <c r="D32">
-        <v>-0.02513266311837607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009220175118025567</v>
+      </c>
+      <c r="E32">
+        <v>-0.05458910170913087</v>
+      </c>
+      <c r="F32">
+        <v>9.781334503028977e-05</v>
+      </c>
+      <c r="G32">
+        <v>-0.0346859895980151</v>
+      </c>
+      <c r="H32">
+        <v>-0.03102739280718647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0865918862535205</v>
+        <v>0.09502505789203719</v>
       </c>
       <c r="C33">
-        <v>-0.03922250156833269</v>
+        <v>0.01862188600790629</v>
       </c>
       <c r="D33">
-        <v>-0.05211166480814789</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04894443861001839</v>
+      </c>
+      <c r="E33">
+        <v>-0.01324511967728551</v>
+      </c>
+      <c r="F33">
+        <v>-0.01145054502816008</v>
+      </c>
+      <c r="G33">
+        <v>-0.01344746073284485</v>
+      </c>
+      <c r="H33">
+        <v>-0.06459071049193574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05973676960560557</v>
+        <v>0.06440543087073483</v>
       </c>
       <c r="C34">
-        <v>-0.02363999572822966</v>
+        <v>0.006396598164275487</v>
       </c>
       <c r="D34">
-        <v>-0.05199500064930409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04986612725224698</v>
+      </c>
+      <c r="E34">
+        <v>-0.004928279809732423</v>
+      </c>
+      <c r="F34">
+        <v>-0.02348358157979918</v>
+      </c>
+      <c r="G34">
+        <v>-0.0190778995168373</v>
+      </c>
+      <c r="H34">
+        <v>-0.04977489967827459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0367236951876973</v>
+        <v>0.03820570914380468</v>
       </c>
       <c r="C35">
-        <v>-0.007286474976844561</v>
+        <v>0.001073370148985898</v>
       </c>
       <c r="D35">
-        <v>-0.02002835997099765</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01551888632662766</v>
+      </c>
+      <c r="E35">
+        <v>-0.02074106441715264</v>
+      </c>
+      <c r="F35">
+        <v>0.01527473946154743</v>
+      </c>
+      <c r="G35">
+        <v>-0.002950616548767891</v>
+      </c>
+      <c r="H35">
+        <v>-0.02404209050517464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02507652398121198</v>
+        <v>0.02920096407297647</v>
       </c>
       <c r="C36">
-        <v>-0.01794107510915268</v>
+        <v>0.01307671884809534</v>
       </c>
       <c r="D36">
-        <v>-0.02029240417837959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01774981838998088</v>
+      </c>
+      <c r="E36">
+        <v>-0.02697600452461785</v>
+      </c>
+      <c r="F36">
+        <v>-0.02917463212144907</v>
+      </c>
+      <c r="G36">
+        <v>-0.004619732971699157</v>
+      </c>
+      <c r="H36">
+        <v>-0.04415874804409714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04513333811009036</v>
+        <v>0.0465046355286633</v>
       </c>
       <c r="C38">
-        <v>-0.002760855714599164</v>
+        <v>-0.004720995110319685</v>
       </c>
       <c r="D38">
-        <v>-0.0162233964239079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01772765498256748</v>
+      </c>
+      <c r="E38">
+        <v>-0.05122209517904579</v>
+      </c>
+      <c r="F38">
+        <v>-0.002547602032368732</v>
+      </c>
+      <c r="G38">
+        <v>-0.004463095467658606</v>
+      </c>
+      <c r="H38">
+        <v>-0.02471660311562597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09057062770557996</v>
+        <v>0.09939488611483799</v>
       </c>
       <c r="C39">
-        <v>-0.06609137319203118</v>
+        <v>0.04227318083720706</v>
       </c>
       <c r="D39">
-        <v>-0.06275199274118552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07132459441440067</v>
+      </c>
+      <c r="E39">
+        <v>0.0001436383548521608</v>
+      </c>
+      <c r="F39">
+        <v>-0.001625250533877046</v>
+      </c>
+      <c r="G39">
+        <v>-0.05029762963158148</v>
+      </c>
+      <c r="H39">
+        <v>-0.03065107091507844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08109855159766376</v>
+        <v>0.06340382002744058</v>
       </c>
       <c r="C40">
-        <v>-0.03391524811530159</v>
+        <v>0.003391099365429439</v>
       </c>
       <c r="D40">
-        <v>-0.01184401799917106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03212018921416108</v>
+      </c>
+      <c r="E40">
+        <v>-0.03694982096922043</v>
+      </c>
+      <c r="F40">
+        <v>0.03997475670581475</v>
+      </c>
+      <c r="G40">
+        <v>-0.02435629668808767</v>
+      </c>
+      <c r="H40">
+        <v>0.08893700743354888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04495152321379119</v>
+        <v>0.04628594639999795</v>
       </c>
       <c r="C41">
-        <v>-0.004138584933663934</v>
+        <v>-0.006972339730206302</v>
       </c>
       <c r="D41">
-        <v>-0.03760451155127918</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03159854458515438</v>
+      </c>
+      <c r="E41">
+        <v>-0.003076189819711702</v>
+      </c>
+      <c r="F41">
+        <v>0.01331856103929585</v>
+      </c>
+      <c r="G41">
+        <v>-0.01633178648515259</v>
+      </c>
+      <c r="H41">
+        <v>-0.01926304336450738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05430688785930693</v>
+        <v>0.06084785677528919</v>
       </c>
       <c r="C43">
-        <v>-0.02488595327414092</v>
+        <v>0.01360164745557777</v>
       </c>
       <c r="D43">
-        <v>-0.01385866494983467</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02844160571594242</v>
+      </c>
+      <c r="E43">
+        <v>-0.02081054228710115</v>
+      </c>
+      <c r="F43">
+        <v>-0.01819915950950651</v>
+      </c>
+      <c r="G43">
+        <v>0.005694289132458228</v>
+      </c>
+      <c r="H43">
+        <v>-0.06136649256779771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0961431257791093</v>
+        <v>0.09395901440590125</v>
       </c>
       <c r="C44">
-        <v>-0.08102945064316823</v>
+        <v>0.05069144599824632</v>
       </c>
       <c r="D44">
-        <v>-0.0755611385094241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07196430927653551</v>
+      </c>
+      <c r="E44">
+        <v>-0.0568756961626724</v>
+      </c>
+      <c r="F44">
+        <v>-0.09505100633390946</v>
+      </c>
+      <c r="G44">
+        <v>-0.04244556210610759</v>
+      </c>
+      <c r="H44">
+        <v>-0.07825733186208267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0281064352797479</v>
+        <v>0.03580785630521027</v>
       </c>
       <c r="C46">
-        <v>-0.01471892845077098</v>
+        <v>0.00846672996944231</v>
       </c>
       <c r="D46">
-        <v>-0.03240937948573026</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03647073763769111</v>
+      </c>
+      <c r="E46">
+        <v>-0.03086746609586338</v>
+      </c>
+      <c r="F46">
+        <v>-0.0164441905958895</v>
+      </c>
+      <c r="G46">
+        <v>-0.007133908035308668</v>
+      </c>
+      <c r="H46">
+        <v>-0.01937911027329847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03573602085711888</v>
+        <v>0.04179220595422661</v>
       </c>
       <c r="C47">
-        <v>-0.02396069862624823</v>
+        <v>0.0184764831449969</v>
       </c>
       <c r="D47">
-        <v>-0.0001392360112349945</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007203689155791702</v>
+      </c>
+      <c r="E47">
+        <v>-0.03908655140939121</v>
+      </c>
+      <c r="F47">
+        <v>0.007382210834628705</v>
+      </c>
+      <c r="G47">
+        <v>0.0245255868778413</v>
+      </c>
+      <c r="H47">
+        <v>-0.02889193348215833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03667173520550783</v>
+        <v>0.03985798259553137</v>
       </c>
       <c r="C48">
-        <v>-0.01857444548118362</v>
+        <v>0.01006057719116303</v>
       </c>
       <c r="D48">
-        <v>-0.03114668313413892</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02050097433969557</v>
+      </c>
+      <c r="E48">
+        <v>-0.0373290127812742</v>
+      </c>
+      <c r="F48">
+        <v>-0.01496327502818008</v>
+      </c>
+      <c r="G48">
+        <v>-0.02277633630707376</v>
+      </c>
+      <c r="H48">
+        <v>-0.02585201202275627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1634763404799507</v>
+        <v>0.1983780779437697</v>
       </c>
       <c r="C49">
-        <v>-0.04674734487232159</v>
+        <v>0.02931290189305789</v>
       </c>
       <c r="D49">
-        <v>-0.005392365482247814</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02589678022829555</v>
+      </c>
+      <c r="E49">
+        <v>0.1671478289289562</v>
+      </c>
+      <c r="F49">
+        <v>-0.03145920504714848</v>
+      </c>
+      <c r="G49">
+        <v>0.1423233047126971</v>
+      </c>
+      <c r="H49">
+        <v>0.248140869450879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04342046733437199</v>
+        <v>0.04628286744263034</v>
       </c>
       <c r="C50">
-        <v>-0.02055620678348612</v>
+        <v>0.009192057203241042</v>
       </c>
       <c r="D50">
-        <v>-0.03928432569114174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03944038144340144</v>
+      </c>
+      <c r="E50">
+        <v>-0.03450472053826347</v>
+      </c>
+      <c r="F50">
+        <v>-0.0105704635392595</v>
+      </c>
+      <c r="G50">
+        <v>-0.002800777502371394</v>
+      </c>
+      <c r="H50">
+        <v>-0.07644292149598859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02986626268760745</v>
+        <v>0.03508874153161617</v>
       </c>
       <c r="C51">
-        <v>-0.01034332245944333</v>
+        <v>0.005657878551451545</v>
       </c>
       <c r="D51">
-        <v>-0.0004143816759220095</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001946811152011651</v>
+      </c>
+      <c r="E51">
+        <v>-0.01069610684845102</v>
+      </c>
+      <c r="F51">
+        <v>-0.009840565907690836</v>
+      </c>
+      <c r="G51">
+        <v>0.01278153035104916</v>
+      </c>
+      <c r="H51">
+        <v>0.01582345913197118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1559514852199737</v>
+        <v>0.1602574168162644</v>
       </c>
       <c r="C53">
-        <v>-0.07088617905121777</v>
+        <v>0.04200658502658044</v>
       </c>
       <c r="D53">
-        <v>0.0009141203654826935</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02839576056706473</v>
+      </c>
+      <c r="E53">
+        <v>0.03286164188311298</v>
+      </c>
+      <c r="F53">
+        <v>0.003516617760805077</v>
+      </c>
+      <c r="G53">
+        <v>-0.01939119273150083</v>
+      </c>
+      <c r="H53">
+        <v>-0.1993821429044816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05712087771044325</v>
+        <v>0.05802102951559265</v>
       </c>
       <c r="C54">
-        <v>-0.01986463817940635</v>
+        <v>0.01023558323081241</v>
       </c>
       <c r="D54">
-        <v>-0.01837806111211766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01475667275000367</v>
+      </c>
+      <c r="E54">
+        <v>-0.05051196210939349</v>
+      </c>
+      <c r="F54">
+        <v>-0.01929966235452689</v>
+      </c>
+      <c r="G54">
+        <v>-0.04903545094775493</v>
+      </c>
+      <c r="H54">
+        <v>-0.03726987119032507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1029781470904728</v>
+        <v>0.1041119439374329</v>
       </c>
       <c r="C55">
-        <v>-0.04995605798450494</v>
+        <v>0.0289937715800864</v>
       </c>
       <c r="D55">
-        <v>-0.01910413846246017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03069916776346336</v>
+      </c>
+      <c r="E55">
+        <v>0.0002910343758442643</v>
+      </c>
+      <c r="F55">
+        <v>-0.01094793986964301</v>
+      </c>
+      <c r="G55">
+        <v>-0.02414059639050948</v>
+      </c>
+      <c r="H55">
+        <v>-0.1560232741141804</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.152663836461615</v>
+        <v>0.1584566102420512</v>
       </c>
       <c r="C56">
-        <v>-0.08140477467176135</v>
+        <v>0.04900151569203724</v>
       </c>
       <c r="D56">
-        <v>-0.003150988320908148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04131279218652255</v>
+      </c>
+      <c r="E56">
+        <v>0.01784687824829262</v>
+      </c>
+      <c r="F56">
+        <v>-0.01768356264461657</v>
+      </c>
+      <c r="G56">
+        <v>-0.01695124035731308</v>
+      </c>
+      <c r="H56">
+        <v>-0.198648757345985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1326632206628783</v>
+        <v>0.09999159550872744</v>
       </c>
       <c r="C58">
-        <v>0.009166393390804656</v>
+        <v>-0.05060719110163298</v>
       </c>
       <c r="D58">
-        <v>-0.04198553235226214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03014858401660991</v>
+      </c>
+      <c r="E58">
+        <v>-0.1250744964307</v>
+      </c>
+      <c r="F58">
+        <v>-0.01573204799409345</v>
+      </c>
+      <c r="G58">
+        <v>0.09251244916632789</v>
+      </c>
+      <c r="H58">
+        <v>0.1559690786085607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1218609961893671</v>
+        <v>0.1459275124068421</v>
       </c>
       <c r="C59">
-        <v>-0.08276540855000047</v>
+        <v>0.1241261026463873</v>
       </c>
       <c r="D59">
-        <v>0.3916547405901983</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3506797481771469</v>
+      </c>
+      <c r="E59">
+        <v>-0.0323143202943274</v>
+      </c>
+      <c r="F59">
+        <v>-0.003439609555586145</v>
+      </c>
+      <c r="G59">
+        <v>0.01113914035393492</v>
+      </c>
+      <c r="H59">
+        <v>-0.01115702738608246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2104003464490641</v>
+        <v>0.2391437664335756</v>
       </c>
       <c r="C60">
-        <v>-0.08753756394056041</v>
+        <v>0.05393178940235906</v>
       </c>
       <c r="D60">
-        <v>-0.01670878965485725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04653394429037024</v>
+      </c>
+      <c r="E60">
+        <v>0.1154012106136907</v>
+      </c>
+      <c r="F60">
+        <v>-0.04266527477530788</v>
+      </c>
+      <c r="G60">
+        <v>0.02446485241465631</v>
+      </c>
+      <c r="H60">
+        <v>0.1439821917704637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08160321708572167</v>
+        <v>0.08697304562430912</v>
       </c>
       <c r="C61">
-        <v>-0.04475372658034898</v>
+        <v>0.02650880815851604</v>
       </c>
       <c r="D61">
-        <v>-0.03510103466725355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04498403677931164</v>
+      </c>
+      <c r="E61">
+        <v>-0.004019172613394308</v>
+      </c>
+      <c r="F61">
+        <v>-0.00476357772705991</v>
+      </c>
+      <c r="G61">
+        <v>-0.02433245907601093</v>
+      </c>
+      <c r="H61">
+        <v>-0.06316965396212247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1334437056779084</v>
+        <v>0.1367624413238147</v>
       </c>
       <c r="C62">
-        <v>-0.05480740354713477</v>
+        <v>0.02450761798930697</v>
       </c>
       <c r="D62">
-        <v>-0.007201674574041281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04406339709724576</v>
+      </c>
+      <c r="E62">
+        <v>0.05323780455072866</v>
+      </c>
+      <c r="F62">
+        <v>0.008485209731737615</v>
+      </c>
+      <c r="G62">
+        <v>-0.06301251103521996</v>
+      </c>
+      <c r="H62">
+        <v>-0.1980109468575245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05305893191045459</v>
+        <v>0.05263759753641108</v>
       </c>
       <c r="C63">
-        <v>-0.02263914160050848</v>
+        <v>0.0125500955635197</v>
       </c>
       <c r="D63">
-        <v>-0.02467426092215137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02035261780070263</v>
+      </c>
+      <c r="E63">
+        <v>-0.0419225978905367</v>
+      </c>
+      <c r="F63">
+        <v>-0.005319675964076721</v>
+      </c>
+      <c r="G63">
+        <v>-0.02773753938280165</v>
+      </c>
+      <c r="H63">
+        <v>-0.0341257455007017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1053978311025177</v>
+        <v>0.1091745251659214</v>
       </c>
       <c r="C64">
-        <v>-0.02748085560738724</v>
+        <v>0.01013169767746456</v>
       </c>
       <c r="D64">
-        <v>-0.02767614423113256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0283744043661365</v>
+      </c>
+      <c r="E64">
+        <v>-0.03050689344754755</v>
+      </c>
+      <c r="F64">
+        <v>-0.04635794471193908</v>
+      </c>
+      <c r="G64">
+        <v>-0.0571223768690007</v>
+      </c>
+      <c r="H64">
+        <v>-0.02131074909701581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1288036073689326</v>
+        <v>0.1293563679839398</v>
       </c>
       <c r="C65">
-        <v>-0.05472834628199889</v>
+        <v>0.03644619026610717</v>
       </c>
       <c r="D65">
-        <v>-0.01588060109275906</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0157185646339492</v>
+      </c>
+      <c r="E65">
+        <v>0.007376565305197964</v>
+      </c>
+      <c r="F65">
+        <v>-0.05131166826176486</v>
+      </c>
+      <c r="G65">
+        <v>-0.06406364561588976</v>
+      </c>
+      <c r="H65">
+        <v>0.1231494146185602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1497763241733788</v>
+        <v>0.1518594334424496</v>
       </c>
       <c r="C66">
-        <v>-0.06538324286233817</v>
+        <v>0.02810170643831629</v>
       </c>
       <c r="D66">
-        <v>-0.09902057186414071</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1032090353129268</v>
+      </c>
+      <c r="E66">
+        <v>0.02617558999503414</v>
+      </c>
+      <c r="F66">
+        <v>0.0003890196327049115</v>
+      </c>
+      <c r="G66">
+        <v>-0.0673923240799222</v>
+      </c>
+      <c r="H66">
+        <v>-0.09221150852516455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07631334786382289</v>
+        <v>0.08596199451546789</v>
       </c>
       <c r="C67">
-        <v>-0.008381187043691072</v>
+        <v>-0.003139709476200648</v>
       </c>
       <c r="D67">
-        <v>-0.02274535831296495</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03128429853972773</v>
+      </c>
+      <c r="E67">
+        <v>-0.02126441849303055</v>
+      </c>
+      <c r="F67">
+        <v>-0.01739699653803052</v>
+      </c>
+      <c r="G67">
+        <v>0.009559073080078688</v>
+      </c>
+      <c r="H67">
+        <v>-0.02396190894858441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05622409967756706</v>
+        <v>0.06370113227461363</v>
       </c>
       <c r="C68">
-        <v>-0.05380452825993227</v>
+        <v>0.09061432759719074</v>
       </c>
       <c r="D68">
-        <v>0.257248951774543</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610114111755219</v>
+      </c>
+      <c r="E68">
+        <v>-0.04440196588020828</v>
+      </c>
+      <c r="F68">
+        <v>-0.01706652785065216</v>
+      </c>
+      <c r="G68">
+        <v>0.006210923136756018</v>
+      </c>
+      <c r="H68">
+        <v>-0.0192974208311497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05387218288478877</v>
+        <v>0.05266878115718358</v>
       </c>
       <c r="C69">
-        <v>-0.01513186833956502</v>
+        <v>0.002222572876304183</v>
       </c>
       <c r="D69">
-        <v>-0.02587647952540944</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02047503075775511</v>
+      </c>
+      <c r="E69">
+        <v>-0.02387059135661596</v>
+      </c>
+      <c r="F69">
+        <v>0.01221494811618077</v>
+      </c>
+      <c r="G69">
+        <v>-0.001205243958781812</v>
+      </c>
+      <c r="H69">
+        <v>-0.04898977562370403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002816786405664715</v>
+        <v>0.0280481821355853</v>
       </c>
       <c r="C70">
-        <v>0.005532918006603335</v>
+        <v>-0.000931864725204601</v>
       </c>
       <c r="D70">
-        <v>0.0134053235667064</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.00788687672676106</v>
+      </c>
+      <c r="E70">
+        <v>0.01958956803511613</v>
+      </c>
+      <c r="F70">
+        <v>-0.003185991751046209</v>
+      </c>
+      <c r="G70">
+        <v>0.02766186026031948</v>
+      </c>
+      <c r="H70">
+        <v>0.02976766621226803</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0552110779648108</v>
+        <v>0.06882702881169593</v>
       </c>
       <c r="C71">
-        <v>-0.05345364740383507</v>
+        <v>0.09946822881600252</v>
       </c>
       <c r="D71">
-        <v>0.2926543116593506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2886643262446575</v>
+      </c>
+      <c r="E71">
+        <v>-0.04094394835202373</v>
+      </c>
+      <c r="F71">
+        <v>-0.0474126998916759</v>
+      </c>
+      <c r="G71">
+        <v>0.0002894129789093339</v>
+      </c>
+      <c r="H71">
+        <v>-0.01196646269617987</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.142640031610629</v>
+        <v>0.1441226284153807</v>
       </c>
       <c r="C72">
-        <v>-0.05683829262686085</v>
+        <v>0.02948959564514902</v>
       </c>
       <c r="D72">
-        <v>0.002249054026275143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003752492767451977</v>
+      </c>
+      <c r="E72">
+        <v>0.05273083101721493</v>
+      </c>
+      <c r="F72">
+        <v>0.1605872548026911</v>
+      </c>
+      <c r="G72">
+        <v>-0.121654540569328</v>
+      </c>
+      <c r="H72">
+        <v>0.01178577771515643</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2883559746065426</v>
+        <v>0.28988247324672</v>
       </c>
       <c r="C73">
-        <v>-0.08855589073598441</v>
+        <v>0.01918595076648953</v>
       </c>
       <c r="D73">
-        <v>-0.04155871481746954</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09572920672199912</v>
+      </c>
+      <c r="E73">
+        <v>0.2523900832899897</v>
+      </c>
+      <c r="F73">
+        <v>-0.05018997658873463</v>
+      </c>
+      <c r="G73">
+        <v>0.2622079268245039</v>
+      </c>
+      <c r="H73">
+        <v>0.422690280553931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08520233297565434</v>
+        <v>0.09288517001060075</v>
       </c>
       <c r="C74">
-        <v>-0.07403770199711097</v>
+        <v>0.05288070924294092</v>
       </c>
       <c r="D74">
-        <v>-0.007227025152666275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04030390929944155</v>
+      </c>
+      <c r="E74">
+        <v>0.00589536535141394</v>
+      </c>
+      <c r="F74">
+        <v>0.004811412083279382</v>
+      </c>
+      <c r="G74">
+        <v>0.02110460277720744</v>
+      </c>
+      <c r="H74">
+        <v>-0.130050165285363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1009930328717777</v>
+        <v>0.1034500140433436</v>
       </c>
       <c r="C75">
-        <v>-0.04605280909850923</v>
+        <v>0.0204072092005627</v>
       </c>
       <c r="D75">
-        <v>-0.01670334802448993</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02587783937961154</v>
+      </c>
+      <c r="E75">
+        <v>0.002192754852319079</v>
+      </c>
+      <c r="F75">
+        <v>-0.0004718993305405439</v>
+      </c>
+      <c r="G75">
+        <v>0.0005590104164367481</v>
+      </c>
+      <c r="H75">
+        <v>-0.1017466349796807</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1349777174336198</v>
+        <v>0.1429819300964287</v>
       </c>
       <c r="C76">
-        <v>-0.07623482215040792</v>
+        <v>0.04782361776324117</v>
       </c>
       <c r="D76">
-        <v>-0.02713482021044387</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0541319092651671</v>
+      </c>
+      <c r="E76">
+        <v>-0.01096769845621312</v>
+      </c>
+      <c r="F76">
+        <v>-0.03334435161053911</v>
+      </c>
+      <c r="G76">
+        <v>-0.0253695388534353</v>
+      </c>
+      <c r="H76">
+        <v>-0.2173109063837753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1184449732182669</v>
+        <v>0.1031397909543996</v>
       </c>
       <c r="C77">
-        <v>-0.007073995559164772</v>
+        <v>-0.0245962282244235</v>
       </c>
       <c r="D77">
-        <v>-0.08439230885157817</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0357474619885605</v>
+      </c>
+      <c r="E77">
+        <v>-0.03453744336699112</v>
+      </c>
+      <c r="F77">
+        <v>-0.1118639313852703</v>
+      </c>
+      <c r="G77">
+        <v>-0.8120888035120473</v>
+      </c>
+      <c r="H77">
+        <v>0.3479651891610738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1080470306950847</v>
+        <v>0.1518457499739367</v>
       </c>
       <c r="C78">
-        <v>-0.03450987799159656</v>
+        <v>0.02702976620702551</v>
       </c>
       <c r="D78">
-        <v>-0.09292816355447651</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08051945092774904</v>
+      </c>
+      <c r="E78">
+        <v>-0.0505517667081436</v>
+      </c>
+      <c r="F78">
+        <v>-0.05723108982998637</v>
+      </c>
+      <c r="G78">
+        <v>-0.05385983939123414</v>
+      </c>
+      <c r="H78">
+        <v>0.06386241215363628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1482721704988982</v>
+        <v>0.1482564644959703</v>
       </c>
       <c r="C79">
-        <v>-0.06421206780918931</v>
+        <v>0.02960480123269492</v>
       </c>
       <c r="D79">
-        <v>-0.02378542951369022</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04081704287037489</v>
+      </c>
+      <c r="E79">
+        <v>0.01673023775664469</v>
+      </c>
+      <c r="F79">
+        <v>-0.01590818500891275</v>
+      </c>
+      <c r="G79">
+        <v>-0.01889577352630946</v>
+      </c>
+      <c r="H79">
+        <v>-0.1579819801195055</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04104613445587832</v>
+        <v>0.04131750481830595</v>
       </c>
       <c r="C80">
-        <v>-0.01819180595153636</v>
+        <v>0.01048449731644689</v>
       </c>
       <c r="D80">
-        <v>-0.03402690688127268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01701040428975285</v>
+      </c>
+      <c r="E80">
+        <v>0.03824314662389981</v>
+      </c>
+      <c r="F80">
+        <v>-0.0008609545203239523</v>
+      </c>
+      <c r="G80">
+        <v>0.01883848179682611</v>
+      </c>
+      <c r="H80">
+        <v>-0.04049597756213825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1233424262201903</v>
+        <v>0.1246967286534115</v>
       </c>
       <c r="C81">
-        <v>-0.05593723035058096</v>
+        <v>0.02987362871528455</v>
       </c>
       <c r="D81">
-        <v>-0.02918364421343529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03096964289985941</v>
+      </c>
+      <c r="E81">
+        <v>-0.009271550932513202</v>
+      </c>
+      <c r="F81">
+        <v>-0.006957974884065646</v>
+      </c>
+      <c r="G81">
+        <v>0.01674141199600148</v>
+      </c>
+      <c r="H81">
+        <v>-0.1467323221087281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.133644725561026</v>
+        <v>0.1309564698436311</v>
       </c>
       <c r="C82">
-        <v>-0.06886819120605482</v>
+        <v>0.03979783458214221</v>
       </c>
       <c r="D82">
-        <v>-0.005813377151645338</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03851818677417635</v>
+      </c>
+      <c r="E82">
+        <v>0.02407191677551661</v>
+      </c>
+      <c r="F82">
+        <v>-0.03836215839948692</v>
+      </c>
+      <c r="G82">
+        <v>0.002481544410963548</v>
+      </c>
+      <c r="H82">
+        <v>-0.2214740854262423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06727773867611087</v>
+        <v>0.08137574343984318</v>
       </c>
       <c r="C83">
-        <v>0.03100713284064729</v>
+        <v>-0.04197891376309469</v>
       </c>
       <c r="D83">
-        <v>-0.02484130717381847</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02182154767973237</v>
+      </c>
+      <c r="E83">
+        <v>-0.02304368192192312</v>
+      </c>
+      <c r="F83">
+        <v>-0.04520540625175084</v>
+      </c>
+      <c r="G83">
+        <v>0.06385474190551907</v>
+      </c>
+      <c r="H83">
+        <v>0.01448103572375843</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02799338116434084</v>
+        <v>0.03563379164811079</v>
       </c>
       <c r="C84">
-        <v>-0.02937278861468538</v>
+        <v>0.01936897721007363</v>
       </c>
       <c r="D84">
-        <v>-0.03510030813513534</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0376185605117731</v>
+      </c>
+      <c r="E84">
+        <v>-0.02075872334579023</v>
+      </c>
+      <c r="F84">
+        <v>0.04377947761888006</v>
+      </c>
+      <c r="G84">
+        <v>0.04624215139204094</v>
+      </c>
+      <c r="H84">
+        <v>-0.03020743972390031</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1184807754379005</v>
+        <v>0.12121243440249</v>
       </c>
       <c r="C85">
-        <v>-0.03879875699883312</v>
+        <v>0.01432326135902888</v>
       </c>
       <c r="D85">
-        <v>-0.04900363849615491</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03892443484733382</v>
+      </c>
+      <c r="E85">
+        <v>-0.01689543976574908</v>
+      </c>
+      <c r="F85">
+        <v>-0.030378262438887</v>
+      </c>
+      <c r="G85">
+        <v>0.002681797909087734</v>
+      </c>
+      <c r="H85">
+        <v>-0.1440709779694966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05333274088165641</v>
+        <v>0.05692687717746644</v>
       </c>
       <c r="C86">
-        <v>-0.02156494648553994</v>
+        <v>0.007205931012807465</v>
       </c>
       <c r="D86">
-        <v>-0.05949142147420097</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0357529968099524</v>
+      </c>
+      <c r="E86">
+        <v>-0.04082316212500301</v>
+      </c>
+      <c r="F86">
+        <v>-0.03359555459794806</v>
+      </c>
+      <c r="G86">
+        <v>0.03836647749852197</v>
+      </c>
+      <c r="H86">
+        <v>0.03325859073977571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1233531984921707</v>
+        <v>0.1253895783096108</v>
       </c>
       <c r="C87">
-        <v>-0.06663884522195682</v>
+        <v>0.03006837155297966</v>
       </c>
       <c r="D87">
-        <v>-0.07165192262913576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07030325620742485</v>
+      </c>
+      <c r="E87">
+        <v>-0.01681650000998329</v>
+      </c>
+      <c r="F87">
+        <v>-0.02078021826999724</v>
+      </c>
+      <c r="G87">
+        <v>-0.1276696660014738</v>
+      </c>
+      <c r="H87">
+        <v>0.07425483732733128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05412209783856206</v>
+        <v>0.06270510252117496</v>
       </c>
       <c r="C88">
-        <v>-0.02735502666988079</v>
+        <v>0.01612487341883819</v>
       </c>
       <c r="D88">
-        <v>-0.02545163114651788</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03825312699600361</v>
+      </c>
+      <c r="E88">
+        <v>-0.006331371055132399</v>
+      </c>
+      <c r="F88">
+        <v>-0.01815045894284499</v>
+      </c>
+      <c r="G88">
+        <v>-0.01686636510884096</v>
+      </c>
+      <c r="H88">
+        <v>-0.03776939134827647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08591127047003178</v>
+        <v>0.107184223353996</v>
       </c>
       <c r="C89">
-        <v>-0.07662089511061365</v>
+        <v>0.1279150204305393</v>
       </c>
       <c r="D89">
-        <v>0.3202356217234032</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3370976668901224</v>
+      </c>
+      <c r="E89">
+        <v>-0.05774220164481451</v>
+      </c>
+      <c r="F89">
+        <v>-0.07803087025075117</v>
+      </c>
+      <c r="G89">
+        <v>0.0253701183253018</v>
+      </c>
+      <c r="H89">
+        <v>-0.01075841165045333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06730633896034433</v>
+        <v>0.08323548634620712</v>
       </c>
       <c r="C90">
-        <v>-0.06391091480441266</v>
+        <v>0.1044538212241276</v>
       </c>
       <c r="D90">
-        <v>0.2801213975159176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2768103985977874</v>
+      </c>
+      <c r="E90">
+        <v>-0.04986810077975738</v>
+      </c>
+      <c r="F90">
+        <v>-0.03973650955573132</v>
+      </c>
+      <c r="G90">
+        <v>-0.02044653678098131</v>
+      </c>
+      <c r="H90">
+        <v>0.001953269015040701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09063663405618258</v>
+        <v>0.09141949759723465</v>
       </c>
       <c r="C91">
-        <v>-0.04933369689142558</v>
+        <v>0.02511564116241456</v>
       </c>
       <c r="D91">
-        <v>-0.01436783929605816</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03335735737553765</v>
+      </c>
+      <c r="E91">
+        <v>-0.006852801409220861</v>
+      </c>
+      <c r="F91">
+        <v>0.002345702825554039</v>
+      </c>
+      <c r="G91">
+        <v>0.02112701685135156</v>
+      </c>
+      <c r="H91">
+        <v>-0.09190717702409711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07191318183095217</v>
+        <v>0.08611276223598198</v>
       </c>
       <c r="C92">
-        <v>-0.07855564865221203</v>
+        <v>0.1261076777090249</v>
       </c>
       <c r="D92">
-        <v>0.3395282342026987</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3295718237877209</v>
+      </c>
+      <c r="E92">
+        <v>-0.04453453930916913</v>
+      </c>
+      <c r="F92">
+        <v>-0.03884789453723984</v>
+      </c>
+      <c r="G92">
+        <v>-0.01304538902232109</v>
+      </c>
+      <c r="H92">
+        <v>-0.01726314551817852</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06249632252631256</v>
+        <v>0.08102617943369581</v>
       </c>
       <c r="C93">
-        <v>-0.0688903085479263</v>
+        <v>0.1161395014508344</v>
       </c>
       <c r="D93">
-        <v>0.3003911245475143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2924365101040769</v>
+      </c>
+      <c r="E93">
+        <v>-0.02404332441019575</v>
+      </c>
+      <c r="F93">
+        <v>-0.03365205896643009</v>
+      </c>
+      <c r="G93">
+        <v>-0.01875167161223702</v>
+      </c>
+      <c r="H93">
+        <v>-0.006391324030789653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1356440913292846</v>
+        <v>0.1295836080848149</v>
       </c>
       <c r="C94">
-        <v>-0.04190247368925128</v>
+        <v>0.007815879938807023</v>
       </c>
       <c r="D94">
-        <v>-0.04450924714260807</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0499710479540774</v>
+      </c>
+      <c r="E94">
+        <v>0.01888654692961889</v>
+      </c>
+      <c r="F94">
+        <v>-0.00891397152480005</v>
+      </c>
+      <c r="G94">
+        <v>0.04144227073568123</v>
+      </c>
+      <c r="H94">
+        <v>-0.114494803934574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.122329628198456</v>
+        <v>0.1297501417904187</v>
       </c>
       <c r="C95">
-        <v>-0.01664639138918278</v>
+        <v>-0.009973046321713913</v>
       </c>
       <c r="D95">
-        <v>-0.05509810093941259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05820690586602164</v>
+      </c>
+      <c r="E95">
+        <v>-0.007687260103334399</v>
+      </c>
+      <c r="F95">
+        <v>-0.05484262663408005</v>
+      </c>
+      <c r="G95">
+        <v>-0.01264075605436067</v>
+      </c>
+      <c r="H95">
+        <v>0.08112001576873479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2205816593815862</v>
+        <v>0.1972955008990105</v>
       </c>
       <c r="C97">
-        <v>-0.03990999387195968</v>
+        <v>-0.005905408318537676</v>
       </c>
       <c r="D97">
-        <v>0.09934049738881928</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07337029233434805</v>
+      </c>
+      <c r="E97">
+        <v>0.0425620261641796</v>
+      </c>
+      <c r="F97">
+        <v>0.9290360615453255</v>
+      </c>
+      <c r="G97">
+        <v>-0.09216750345295398</v>
+      </c>
+      <c r="H97">
+        <v>0.02468008597735572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2444761307288429</v>
+        <v>0.2735615874288617</v>
       </c>
       <c r="C98">
-        <v>-0.05026118659061676</v>
+        <v>0.009521072032706596</v>
       </c>
       <c r="D98">
-        <v>-0.01711723947405564</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04532725999840569</v>
+      </c>
+      <c r="E98">
+        <v>0.1901991443814471</v>
+      </c>
+      <c r="F98">
+        <v>-0.03374948846395034</v>
+      </c>
+      <c r="G98">
+        <v>0.3103134917946369</v>
+      </c>
+      <c r="H98">
+        <v>0.1875434839150168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3896314928937901</v>
+        <v>0.2511532298865992</v>
       </c>
       <c r="C99">
-        <v>0.9001054486818558</v>
+        <v>-0.9166942470746061</v>
       </c>
       <c r="D99">
-        <v>0.08064829336296521</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.245502696219113</v>
+      </c>
+      <c r="E99">
+        <v>-0.06894147260845739</v>
+      </c>
+      <c r="F99">
+        <v>-0.07143560036063405</v>
+      </c>
+      <c r="G99">
+        <v>0.001565549951021061</v>
+      </c>
+      <c r="H99">
+        <v>-0.07690392696454984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04581805411591</v>
+        <v>0.04804545222369934</v>
       </c>
       <c r="C101">
-        <v>-0.02965244187535298</v>
+        <v>0.0214659962199989</v>
       </c>
       <c r="D101">
-        <v>-0.003547624443813013</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01270729288977993</v>
+      </c>
+      <c r="E101">
+        <v>-0.05499806275456446</v>
+      </c>
+      <c r="F101">
+        <v>-0.02266169255434347</v>
+      </c>
+      <c r="G101">
+        <v>-0.01595927360346906</v>
+      </c>
+      <c r="H101">
+        <v>-0.06763374509831969</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
